--- a/Proyecto/DatosInformeCalidad.xlsx
+++ b/Proyecto/DatosInformeCalidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alba\Escritorio\1.UEM\2021-2022\1 cuatrimestre\Proyecto\Proyecto matlab\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B10B4D-9C78-44CF-A5C0-B932E61DFF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B26E31A-1515-4D8B-BA38-E19DB9AB4457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="10188" windowHeight="8964" xr2:uid="{A06EA087-EB8B-44B9-B597-380F78CDFBAC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Metrica</t>
   </si>
@@ -63,19 +63,22 @@
     <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Numero de movimientos </t>
-  </si>
-  <si>
-    <t>Rango de movimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimo </t>
-  </si>
-  <si>
     <t>Calidad</t>
+  </si>
+  <si>
+    <t>Porcentaje de fallos total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de fallo </t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
+  <si>
+    <t>Maximo</t>
+  </si>
+  <si>
+    <t>Minimo</t>
   </si>
 </sst>
 </file>
@@ -427,15 +430,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806E5466-98AD-4E15-9168-D4A2CCC550B6}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,21 +452,24 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -469,21 +478,24 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.71666666666666667</v>
+        <v>62.554112554112557</v>
       </c>
       <c r="E2">
-        <v>63.682313018110349</v>
+        <v>52</v>
       </c>
       <c r="F2">
+        <v>23.826494579557121</v>
+      </c>
+      <c r="G2">
+        <v>63.826494579557121</v>
+      </c>
+      <c r="H2">
         <v>40</v>
       </c>
-      <c r="G2">
-        <v>23.682313018110349</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -492,21 +504,24 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.71666666666666667</v>
+        <v>62.554112554112557</v>
       </c>
       <c r="E3">
-        <v>38.844895546671808</v>
+        <v>81.7</v>
       </c>
       <c r="F3">
+        <v>26.164856027679676</v>
+      </c>
+      <c r="G3">
+        <v>36.164856027679676</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="G3">
-        <v>28.844895546671808</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -515,21 +530,24 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.71666666666666667</v>
+        <v>62.554112554112557</v>
       </c>
       <c r="E4">
-        <v>124.99071803458376</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="F4">
-        <v>66.866763113079955</v>
+        <v>57.29340951033646</v>
       </c>
       <c r="G4">
-        <v>58.12395492150381</v>
+        <v>124.29340951033646</v>
+      </c>
+      <c r="H4">
+        <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -538,21 +556,24 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.71666666666666667</v>
+        <v>62.554112554112557</v>
       </c>
       <c r="E5">
-        <v>56.055076262033943</v>
+        <v>66.2</v>
       </c>
       <c r="F5">
-        <v>18.169901454116143</v>
+        <v>41.722004031180425</v>
       </c>
       <c r="G5">
-        <v>37.885174807917799</v>
+        <v>56.712778888422058</v>
+      </c>
+      <c r="H5">
+        <v>14.990774857241631</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -561,21 +582,24 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.71666666666666667</v>
+        <v>62.554112554112557</v>
       </c>
       <c r="E6">
-        <v>18.600827093715072</v>
+        <v>33.9</v>
       </c>
       <c r="F6">
+        <v>15.509783240888456</v>
+      </c>
+      <c r="G6">
+        <v>20.509783240888456</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>13.600827093715072</v>
-      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -584,21 +608,19 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.71666666666666667</v>
+        <v>62.554112554112557</v>
       </c>
       <c r="E7">
-        <v>31.242157410240964</v>
+        <v>71</v>
       </c>
       <c r="F7">
-        <v>21.65619300883051</v>
+        <v>6.2538636626094295</v>
       </c>
       <c r="G7">
-        <v>9.5859644014104539</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8">
-        <v>24.583333333333332</v>
+        <v>29.667404557667691</v>
+      </c>
+      <c r="H7">
+        <v>23.413540895058262</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/DatosInformeCalidad.xlsx
+++ b/Proyecto/DatosInformeCalidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alba\Escritorio\1.UEM\2021-2022\1 cuatrimestre\Proyecto\Proyecto matlab\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B26E31A-1515-4D8B-BA38-E19DB9AB4457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD34DA29-56C6-4B87-8242-3E2E765BBB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="10188" windowHeight="8964" xr2:uid="{A06EA087-EB8B-44B9-B597-380F78CDFBAC}"/>
   </bookViews>
@@ -478,16 +478,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>62.554112554112557</v>
+        <v>71.128871128871126</v>
       </c>
       <c r="E2">
-        <v>52</v>
+        <v>73.2</v>
       </c>
       <c r="F2">
-        <v>23.826494579557121</v>
+        <v>22.886886201271473</v>
       </c>
       <c r="G2">
-        <v>63.826494579557121</v>
+        <v>62.886886201271473</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -504,16 +504,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>62.554112554112557</v>
+        <v>71.128871128871126</v>
       </c>
       <c r="E3">
-        <v>81.7</v>
+        <v>74.2</v>
       </c>
       <c r="F3">
-        <v>26.164856027679676</v>
+        <v>27.34275463129169</v>
       </c>
       <c r="G3">
-        <v>36.164856027679676</v>
+        <v>37.34275463129169</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -530,19 +530,19 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>62.554112554112557</v>
+        <v>71.128871128871126</v>
       </c>
       <c r="E4">
-        <v>70.900000000000006</v>
+        <v>56.8</v>
       </c>
       <c r="F4">
-        <v>57.29340951033646</v>
+        <v>57.356900041311306</v>
       </c>
       <c r="G4">
-        <v>124.29340951033646</v>
+        <v>122.55401165399701</v>
       </c>
       <c r="H4">
-        <v>67</v>
+        <v>65.197111612685703</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -556,19 +556,19 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>62.554112554112557</v>
+        <v>71.128871128871126</v>
       </c>
       <c r="E5">
-        <v>66.2</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F5">
-        <v>41.722004031180425</v>
+        <v>39.423343765593444</v>
       </c>
       <c r="G5">
-        <v>56.712778888422058</v>
+        <v>57.522638242998568</v>
       </c>
       <c r="H5">
-        <v>14.990774857241631</v>
+        <v>18.099294477405127</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>62.554112554112557</v>
+        <v>71.128871128871126</v>
       </c>
       <c r="E6">
-        <v>33.9</v>
+        <v>71.7</v>
       </c>
       <c r="F6">
-        <v>15.509783240888456</v>
+        <v>15.604003131001303</v>
       </c>
       <c r="G6">
-        <v>20.509783240888456</v>
+        <v>20.604003131001303</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -608,19 +608,19 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>62.554112554112557</v>
+        <v>71.128871128871126</v>
       </c>
       <c r="E7">
-        <v>71</v>
+        <v>74.2</v>
       </c>
       <c r="F7">
-        <v>6.2538636626094295</v>
+        <v>7.8418971196848517</v>
       </c>
       <c r="G7">
-        <v>29.667404557667691</v>
+        <v>31.38272493716569</v>
       </c>
       <c r="H7">
-        <v>23.413540895058262</v>
+        <v>23.540827817480839</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/DatosInformeCalidad.xlsx
+++ b/Proyecto/DatosInformeCalidad.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alba\Escritorio\1.UEM\2021-2022\1 cuatrimestre\Proyecto\Proyecto matlab\TrackMotion\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANIELBAQUEROZAZO\Documents\MATLAB\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD34DA29-56C6-4B87-8242-3E2E765BBB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B1A748-5841-4006-8718-8CA51EDCFA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="10188" windowHeight="8964" xr2:uid="{A06EA087-EB8B-44B9-B597-380F78CDFBAC}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{A06EA087-EB8B-44B9-B597-380F78CDFBAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -436,12 +434,12 @@
       <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -478,22 +476,22 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>71.128871128871126</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>73.2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>22.886886201271473</v>
+        <v>22.810807399706093</v>
       </c>
       <c r="G2">
-        <v>62.886886201271473</v>
+        <v>62.810807399706093</v>
       </c>
       <c r="H2">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -504,22 +502,22 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>71.128871128871126</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>74.2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>27.34275463129169</v>
+        <v>28.19861889156364</v>
       </c>
       <c r="G3">
-        <v>37.34275463129169</v>
+        <v>38.19861889156364</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -530,22 +528,22 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>71.128871128871126</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>56.8</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>57.356900041311306</v>
+        <v>56.378670739293071</v>
       </c>
       <c r="G4">
-        <v>122.55401165399701</v>
+        <v>122.28134913072228</v>
       </c>
       <c r="H4">
-        <v>65.197111612685703</v>
+        <v>65.902678391429205</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -556,22 +554,22 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>71.128871128871126</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>77.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>39.423343765593444</v>
+        <v>43.355339105518681</v>
       </c>
       <c r="G5">
-        <v>57.522638242998568</v>
+        <v>57.986070536640781</v>
       </c>
       <c r="H5">
-        <v>18.099294477405127</v>
+        <v>14.630731431122097</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -582,22 +580,22 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>71.128871128871126</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>71.7</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>15.604003131001303</v>
+        <v>16.43556202943499</v>
       </c>
       <c r="G6">
-        <v>20.604003131001303</v>
+        <v>21.43556202943499</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -608,19 +606,19 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>71.128871128871126</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>74.2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>7.8418971196848517</v>
+        <v>6.2731813929354026</v>
       </c>
       <c r="G7">
-        <v>31.38272493716569</v>
+        <v>29.851647229533484</v>
       </c>
       <c r="H7">
-        <v>23.540827817480839</v>
+        <v>23.578465836598081</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/DatosInformeCalidad.xlsx
+++ b/Proyecto/DatosInformeCalidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alba\Escritorio\1.UEM\2021-2022\1 cuatrimestre\Proyecto\Proyecto matlab\TrackMotion\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\MATLAB\Proyecto\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD34DA29-56C6-4B87-8242-3E2E765BBB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608F1D53-AADF-4A4F-81D8-158DD0503C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="10188" windowHeight="8964" xr2:uid="{A06EA087-EB8B-44B9-B597-380F78CDFBAC}"/>
+    <workbookView xWindow="5088" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{A06EA087-EB8B-44B9-B597-380F78CDFBAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -478,16 +478,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>71.128871128871126</v>
+        <v>0.28305028305028307</v>
       </c>
       <c r="E2">
-        <v>73.2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>22.886886201271473</v>
+        <v>23.258799771306613</v>
       </c>
       <c r="G2">
-        <v>62.886886201271473</v>
+        <v>63.258799771306613</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -504,16 +504,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>71.128871128871126</v>
+        <v>0.28305028305028307</v>
       </c>
       <c r="E3">
-        <v>74.2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>27.34275463129169</v>
+        <v>28.659951163073231</v>
       </c>
       <c r="G3">
-        <v>37.34275463129169</v>
+        <v>38.659951163073231</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -530,19 +530,19 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>71.128871128871126</v>
+        <v>0.28305028305028307</v>
       </c>
       <c r="E4">
-        <v>56.8</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>57.356900041311306</v>
+        <v>57.059490481691256</v>
       </c>
       <c r="G4">
-        <v>122.55401165399701</v>
+        <v>124.05949048169126</v>
       </c>
       <c r="H4">
-        <v>65.197111612685703</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -556,19 +556,19 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>71.128871128871126</v>
+        <v>0.28305028305028307</v>
       </c>
       <c r="E5">
-        <v>77.099999999999994</v>
+        <v>1.7</v>
       </c>
       <c r="F5">
-        <v>39.423343765593444</v>
+        <v>41.579162977433008</v>
       </c>
       <c r="G5">
-        <v>57.522638242998568</v>
+        <v>56.248394715601748</v>
       </c>
       <c r="H5">
-        <v>18.099294477405127</v>
+        <v>14.66923173816874</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>71.128871128871126</v>
+        <v>0.28305028305028307</v>
       </c>
       <c r="E6">
-        <v>71.7</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>15.604003131001303</v>
+        <v>17.389952915797021</v>
       </c>
       <c r="G6">
-        <v>20.604003131001303</v>
+        <v>22.389952915797021</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -608,19 +608,19 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>71.128871128871126</v>
+        <v>0.28305028305028307</v>
       </c>
       <c r="E7">
-        <v>74.2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>7.8418971196848517</v>
+        <v>8.2164366239703561</v>
       </c>
       <c r="G7">
-        <v>31.38272493716569</v>
+        <v>30.977954834718371</v>
       </c>
       <c r="H7">
-        <v>23.540827817480839</v>
+        <v>22.761518210748015</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/DatosInformeCalidad.xlsx
+++ b/Proyecto/DatosInformeCalidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANIELBAQUEROZAZO\Documents\MATLAB\TrackMotion\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\MATLAB\Proyecto\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B1A748-5841-4006-8718-8CA51EDCFA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A361CB1D-8B4B-4B5E-B4DE-FA77A2B9C6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{A06EA087-EB8B-44B9-B597-380F78CDFBAC}"/>
+    <workbookView xWindow="5088" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{A06EA087-EB8B-44B9-B597-380F78CDFBAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -434,12 +434,12 @@
       <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -476,22 +476,22 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.49950049950049952</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.810807399706093</v>
+        <v>22.920898333459618</v>
       </c>
       <c r="G2">
-        <v>62.810807399706093</v>
+        <v>62.920898333459618</v>
       </c>
       <c r="H2">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -502,22 +502,22 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.49950049950049952</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.19861889156364</v>
+        <v>26.039330157900395</v>
       </c>
       <c r="G3">
-        <v>38.19861889156364</v>
+        <v>36.039330157900395</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -528,22 +528,22 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.49950049950049952</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.378670739293071</v>
+        <v>57.903302786329974</v>
       </c>
       <c r="G4">
-        <v>122.28134913072228</v>
+        <v>124.3392556132506</v>
       </c>
       <c r="H4">
-        <v>65.902678391429205</v>
+        <v>66.435952826920627</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -554,22 +554,22 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.49950049950049952</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>43.355339105518681</v>
+        <v>41.112951913439424</v>
       </c>
       <c r="G5">
-        <v>57.986070536640781</v>
+        <v>57.026721361883929</v>
       </c>
       <c r="H5">
-        <v>14.630731431122097</v>
+        <v>15.913769448444507</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -580,22 +580,22 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.49950049950049952</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.43556202943499</v>
+        <v>16.858548047960394</v>
       </c>
       <c r="G6">
-        <v>21.43556202943499</v>
+        <v>21.858548047960394</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -606,19 +606,19 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.49950049950049952</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6.2731813929354026</v>
+        <v>8.0234104899767047</v>
       </c>
       <c r="G7">
-        <v>29.851647229533484</v>
+        <v>31.504626457549428</v>
       </c>
       <c r="H7">
-        <v>23.578465836598081</v>
+        <v>23.481215967572723</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/DatosInformeCalidad.xlsx
+++ b/Proyecto/DatosInformeCalidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\MATLAB\Proyecto\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A361CB1D-8B4B-4B5E-B4DE-FA77A2B9C6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7607843-A828-47D6-8855-22FF4CD8BD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5088" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{A06EA087-EB8B-44B9-B597-380F78CDFBAC}"/>
   </bookViews>
@@ -476,16 +476,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.49950049950049952</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.920898333459618</v>
+        <v>23.416558209222927</v>
       </c>
       <c r="G2">
-        <v>62.920898333459618</v>
+        <v>63.416558209222927</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -502,16 +502,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.49950049950049952</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.039330157900395</v>
+        <v>25.518868527929293</v>
       </c>
       <c r="G3">
-        <v>36.039330157900395</v>
+        <v>35.518868527929293</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -528,19 +528,19 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.49950049950049952</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.903302786329974</v>
+        <v>56.45778741758788</v>
       </c>
       <c r="G4">
-        <v>124.3392556132506</v>
+        <v>122.09637847234583</v>
       </c>
       <c r="H4">
-        <v>66.435952826920627</v>
+        <v>65.638591054757953</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -554,19 +554,19 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.49950049950049952</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="F5">
-        <v>41.112951913439424</v>
+        <v>42.063196561692806</v>
       </c>
       <c r="G5">
-        <v>57.026721361883929</v>
+        <v>57.631837228442535</v>
       </c>
       <c r="H5">
-        <v>15.913769448444507</v>
+        <v>15.568640666749731</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -580,16 +580,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.49950049950049952</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.858548047960394</v>
+        <v>16.038397076574157</v>
       </c>
       <c r="G6">
-        <v>21.858548047960394</v>
+        <v>21.038397076574157</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -606,19 +606,19 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.49950049950049952</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>8.0234104899767047</v>
+        <v>9.0720869492623528</v>
       </c>
       <c r="G7">
-        <v>31.504626457549428</v>
+        <v>31.401299689353294</v>
       </c>
       <c r="H7">
-        <v>23.481215967572723</v>
+        <v>22.329212740090941</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/DatosInformeCalidad.xlsx
+++ b/Proyecto/DatosInformeCalidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\MATLAB\Proyecto\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7607843-A828-47D6-8855-22FF4CD8BD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FD6754-44F1-4807-9099-10283B1CF3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5088" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{A06EA087-EB8B-44B9-B597-380F78CDFBAC}"/>
   </bookViews>
@@ -476,16 +476,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.64935064935064934</v>
+        <v>0.26640026640026643</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.416558209222927</v>
+        <v>21.734720334553145</v>
       </c>
       <c r="G2">
-        <v>63.416558209222927</v>
+        <v>61.734720334553145</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -502,16 +502,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.64935064935064934</v>
+        <v>0.26640026640026643</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.518868527929293</v>
+        <v>25.500496845369121</v>
       </c>
       <c r="G3">
-        <v>35.518868527929293</v>
+        <v>35.500496845369121</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -528,19 +528,19 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.64935064935064934</v>
+        <v>0.26640026640026643</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.45778741758788</v>
+        <v>55.089738554105892</v>
       </c>
       <c r="G4">
-        <v>122.09637847234583</v>
+        <v>122.08973855410589</v>
       </c>
       <c r="H4">
-        <v>65.638591054757953</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -554,19 +554,19 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.64935064935064934</v>
+        <v>0.26640026640026643</v>
       </c>
       <c r="E5">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="F5">
-        <v>42.063196561692806</v>
+        <v>42.735333091532482</v>
       </c>
       <c r="G5">
-        <v>57.631837228442535</v>
+        <v>58.071056858693474</v>
       </c>
       <c r="H5">
-        <v>15.568640666749731</v>
+        <v>15.335723767160994</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -580,16 +580,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.64935064935064934</v>
+        <v>0.26640026640026643</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.038397076574157</v>
+        <v>17.435520428642334</v>
       </c>
       <c r="G6">
-        <v>21.038397076574157</v>
+        <v>22.435520428642334</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -606,19 +606,19 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.64935064935064934</v>
+        <v>0.26640026640026643</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>9.0720869492623528</v>
+        <v>7.9815089254588187</v>
       </c>
       <c r="G7">
-        <v>31.401299689353294</v>
+        <v>30.13750810835392</v>
       </c>
       <c r="H7">
-        <v>22.329212740090941</v>
+        <v>22.155999182895101</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/DatosInformeCalidad.xlsx
+++ b/Proyecto/DatosInformeCalidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\MATLAB\Proyecto\TrackMotion\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alba\Escritorio\1.UEM\2021-2022\1 cuatrimestre\Proyecto\Proyecto matlab\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FD6754-44F1-4807-9099-10283B1CF3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1A1E32-3BE0-46AD-9723-E3BC12E8B027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5088" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{A06EA087-EB8B-44B9-B597-380F78CDFBAC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A06EA087-EB8B-44B9-B597-380F78CDFBAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -430,13 +430,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806E5466-98AD-4E15-9168-D4A2CCC550B6}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -557,7 +563,7 @@
         <v>0.26640026640026643</v>
       </c>
       <c r="E5">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>42.735333091532482</v>
